--- a/AnalysisPAPEE.xlsx
+++ b/AnalysisPAPEE.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\einra\OneDrive\Desktop\Master Final\DataForAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\einra\OneDrive\Desktop\Master_Final\DataForAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E7576B6-C139-46B1-B439-7391DB00BD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E823132B-B6CD-479D-8DDF-9D9AFE1652DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PAPEE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="16">
   <si>
     <t>Subject</t>
   </si>
@@ -52,15 +64,6 @@
     <t>FFT Mean VL</t>
   </si>
   <si>
-    <t>FFT Median RF</t>
-  </si>
-  <si>
-    <t>FFT Median VM</t>
-  </si>
-  <si>
-    <t>FFT Median VL</t>
-  </si>
-  <si>
     <t>t1</t>
   </si>
   <si>
@@ -82,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -916,14 +919,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -954,22 +959,13 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>122.3171533</v>
@@ -995,22 +991,13 @@
       <c r="J2">
         <v>72.101697450000003</v>
       </c>
-      <c r="K2">
-        <v>72.233104800000007</v>
-      </c>
-      <c r="L2">
-        <v>74.926542609999998</v>
-      </c>
-      <c r="M2">
-        <v>61.459353569999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>166.74297540000001</v>
@@ -1036,22 +1023,13 @@
       <c r="J3">
         <v>65.570055699999998</v>
       </c>
-      <c r="K3">
-        <v>77.181208049999995</v>
-      </c>
-      <c r="L3">
-        <v>63.148261130000002</v>
-      </c>
-      <c r="M3">
-        <v>59.487492369999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>155.89142899999999</v>
@@ -1077,22 +1055,13 @@
       <c r="J4">
         <v>67.297309720000001</v>
       </c>
-      <c r="K4">
-        <v>67.137809189999999</v>
-      </c>
-      <c r="L4">
-        <v>51.993942449999999</v>
-      </c>
-      <c r="M4">
-        <v>54.770318019999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>180.4533868</v>
@@ -1118,63 +1087,45 @@
       <c r="J5">
         <v>63.301884340000001</v>
       </c>
-      <c r="K5">
-        <v>77.397260270000004</v>
-      </c>
-      <c r="L5">
-        <v>58.219178079999999</v>
-      </c>
-      <c r="M5">
-        <v>57.876712329999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>166.74297540000001</v>
+        <v>174.97759199999999</v>
       </c>
       <c r="D6">
-        <v>469.58628549999997</v>
+        <v>599.44380950000004</v>
       </c>
       <c r="E6">
-        <v>1.68308686</v>
+        <v>0.32670399999999999</v>
       </c>
       <c r="F6">
-        <v>2.0836849499999999</v>
+        <v>0.383629</v>
       </c>
       <c r="G6">
-        <v>1.4198678499999999</v>
+        <v>0.32727159</v>
       </c>
       <c r="H6">
-        <v>88.279216259999998</v>
+        <v>69.549300000000002</v>
       </c>
       <c r="I6">
-        <v>76.062452500000006</v>
+        <v>79.945991199999995</v>
       </c>
       <c r="J6">
-        <v>65.570055699999998</v>
-      </c>
-      <c r="K6">
-        <v>77.181208049999995</v>
-      </c>
-      <c r="L6">
-        <v>63.148261130000002</v>
-      </c>
-      <c r="M6">
-        <v>59.487492369999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>76.288560380000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>113.5997407</v>
@@ -1200,22 +1151,13 @@
       <c r="J7">
         <v>77.183052950000004</v>
       </c>
-      <c r="K7">
-        <v>52.42203052</v>
-      </c>
-      <c r="L7">
-        <v>74.319840740000004</v>
-      </c>
-      <c r="M7">
-        <v>63.702720640000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>94.290767720000005</v>
@@ -1241,22 +1183,13 @@
       <c r="J8">
         <v>72.911848699999993</v>
       </c>
-      <c r="K8">
-        <v>65.120178870000004</v>
-      </c>
-      <c r="L8">
-        <v>65.95863611</v>
-      </c>
-      <c r="M8">
-        <v>63.163778649999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>130.45057320000001</v>
@@ -1282,22 +1215,13 @@
       <c r="J9">
         <v>66.108594249999996</v>
       </c>
-      <c r="K9">
-        <v>61.205273069999997</v>
-      </c>
-      <c r="L9">
-        <v>80.979284370000002</v>
-      </c>
-      <c r="M9">
-        <v>56.732580040000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>124.9450068</v>
@@ -1323,22 +1247,13 @@
       <c r="J10">
         <v>58.7863173</v>
       </c>
-      <c r="K10">
-        <v>56.843267109999999</v>
-      </c>
-      <c r="L10">
-        <v>53.80794702</v>
-      </c>
-      <c r="M10">
-        <v>52.980132449999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>92.361886409999997</v>
@@ -1364,22 +1279,13 @@
       <c r="J11">
         <v>58.60612355</v>
       </c>
-      <c r="K11">
-        <v>65.47619048</v>
-      </c>
-      <c r="L11">
-        <v>58.823529409999999</v>
-      </c>
-      <c r="M11">
-        <v>57.072829130000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>133.35360700000001</v>
@@ -1405,22 +1311,13 @@
       <c r="J12">
         <v>67.878829949999997</v>
       </c>
-      <c r="K12">
-        <v>59.28143713</v>
-      </c>
-      <c r="L12">
-        <v>58.982035930000002</v>
-      </c>
-      <c r="M12">
-        <v>59.580838319999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>126.77965279999999</v>
@@ -1446,22 +1343,13 @@
       <c r="J13">
         <v>55.637067950000002</v>
       </c>
-      <c r="K13">
-        <v>59.841740850000001</v>
-      </c>
-      <c r="L13">
-        <v>56.132542039999997</v>
-      </c>
-      <c r="M13">
-        <v>48.219584570000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>203.17983580000001</v>
@@ -1487,22 +1375,13 @@
       <c r="J14">
         <v>61.909510109999999</v>
       </c>
-      <c r="K14">
-        <v>62.470532769999998</v>
-      </c>
-      <c r="L14">
-        <v>61.999057049999998</v>
-      </c>
-      <c r="M14">
-        <v>56.812824139999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>174.2258018</v>
@@ -1528,22 +1407,13 @@
       <c r="J15">
         <v>70.858620279999997</v>
       </c>
-      <c r="K15">
-        <v>67.232105919999995</v>
-      </c>
-      <c r="L15">
-        <v>73.64501448</v>
-      </c>
-      <c r="M15">
-        <v>58.54364915</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>158.72360420000001</v>
@@ -1569,63 +1439,45 @@
       <c r="J16">
         <v>62.387910779999999</v>
       </c>
-      <c r="K16">
-        <v>64.200217629999997</v>
-      </c>
-      <c r="L16">
-        <v>58.759521220000003</v>
-      </c>
-      <c r="M16">
-        <v>57.399347120000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>203.17983580000001</v>
+        <v>188.876845</v>
       </c>
       <c r="D17">
-        <v>422.5211688</v>
+        <v>499.64180770000002</v>
       </c>
       <c r="E17">
-        <v>2.7119084600000001</v>
+        <v>0.62329800000000002</v>
       </c>
       <c r="F17">
-        <v>3.0843897899999999</v>
+        <v>0.71662919999999997</v>
       </c>
       <c r="G17">
-        <v>2.2832711799999998</v>
+        <v>0.50719437000000001</v>
       </c>
       <c r="H17">
-        <v>72.07361186</v>
+        <v>63.096722</v>
       </c>
       <c r="I17">
-        <v>70.424394989999996</v>
+        <v>68.210844989999998</v>
       </c>
       <c r="J17">
-        <v>61.909510109999999</v>
-      </c>
-      <c r="K17">
-        <v>62.470532769999998</v>
-      </c>
-      <c r="L17">
-        <v>61.999057049999998</v>
-      </c>
-      <c r="M17">
-        <v>56.812824139999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>68.413698339999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>111.5410378</v>
@@ -1651,22 +1503,13 @@
       <c r="J18">
         <v>71.380028879999998</v>
       </c>
-      <c r="K18">
-        <v>55.120313369999998</v>
-      </c>
-      <c r="L18">
-        <v>57.918298819999997</v>
-      </c>
-      <c r="M18">
-        <v>57.638500280000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>95.096141070000002</v>
@@ -1692,22 +1535,13 @@
       <c r="J19">
         <v>59.08690902</v>
       </c>
-      <c r="K19">
-        <v>63.405797100000001</v>
-      </c>
-      <c r="L19">
-        <v>56.461352660000003</v>
-      </c>
-      <c r="M19">
-        <v>55.555555560000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>129.4081089</v>
@@ -1731,24 +1565,15 @@
         <v>83.090607669999997</v>
       </c>
       <c r="J20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20">
-        <v>54.665409990000001</v>
-      </c>
-      <c r="L20">
-        <v>64.797360979999993</v>
-      </c>
-      <c r="M20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C21">
         <v>113.5622589</v>
@@ -1774,22 +1599,13 @@
       <c r="J21">
         <v>51.104976960000002</v>
       </c>
-      <c r="K21">
-        <v>43.151969979999997</v>
-      </c>
-      <c r="L21">
-        <v>46.278924330000002</v>
-      </c>
-      <c r="M21">
-        <v>46.59161976</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>83.297654469999998</v>
@@ -1815,22 +1631,13 @@
       <c r="J22">
         <v>58.403279070000004</v>
       </c>
-      <c r="K22">
-        <v>65.255220420000001</v>
-      </c>
-      <c r="L22">
-        <v>59.454756379999999</v>
-      </c>
-      <c r="M22">
-        <v>55.39443155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>163.80384599999999</v>
@@ -1856,22 +1663,13 @@
       <c r="J23">
         <v>64.325173129999996</v>
       </c>
-      <c r="K23">
-        <v>64.260112649999996</v>
-      </c>
-      <c r="L23">
-        <v>60.675883259999999</v>
-      </c>
-      <c r="M23">
-        <v>60.163850490000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C24">
         <v>113.260941</v>
@@ -1897,22 +1695,13 @@
       <c r="J24">
         <v>73.485336669999995</v>
       </c>
-      <c r="K24">
-        <v>79.633867280000004</v>
-      </c>
-      <c r="L24">
-        <v>70.022883300000004</v>
-      </c>
-      <c r="M24">
-        <v>63.615560639999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C25">
         <v>184.77754899999999</v>
@@ -1938,22 +1727,13 @@
       <c r="J25">
         <v>66.779686229999996</v>
       </c>
-      <c r="K25">
-        <v>74.709864600000003</v>
-      </c>
-      <c r="L25">
-        <v>67.940038680000001</v>
-      </c>
-      <c r="M25">
-        <v>61.895551259999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C26">
         <v>180.49245740000001</v>
@@ -1979,22 +1759,13 @@
       <c r="J26">
         <v>69.179671350000007</v>
       </c>
-      <c r="K26">
-        <v>70.091093119999996</v>
-      </c>
-      <c r="L26">
-        <v>68.319838059999995</v>
-      </c>
-      <c r="M26">
-        <v>60.222672060000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>169.4982033</v>
@@ -2020,63 +1791,45 @@
       <c r="J27">
         <v>69.974519319999999</v>
       </c>
-      <c r="K27">
-        <v>82.464745550000004</v>
-      </c>
-      <c r="L27">
-        <v>64.684242800000007</v>
-      </c>
-      <c r="M27">
-        <v>59.16615573</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C28">
-        <v>184.77754899999999</v>
+        <v>173.62293</v>
       </c>
       <c r="D28">
-        <v>413.25964349999998</v>
+        <v>569.87233700000002</v>
       </c>
       <c r="E28">
-        <v>2.1950561500000001</v>
+        <v>0.39468999999999999</v>
       </c>
       <c r="F28">
-        <v>2.5645289299999998</v>
+        <v>0.44460100000000002</v>
       </c>
       <c r="G28">
-        <v>1.6936405400000001</v>
+        <v>0.33230999999999999</v>
       </c>
       <c r="H28">
-        <v>87.350074939999999</v>
+        <v>73.219937000000002</v>
       </c>
       <c r="I28">
-        <v>78.243782620000005</v>
+        <v>80.863313000000005</v>
       </c>
       <c r="J28">
-        <v>66.779686229999996</v>
-      </c>
-      <c r="K28">
-        <v>74.709864600000003</v>
-      </c>
-      <c r="L28">
-        <v>67.940038680000001</v>
-      </c>
-      <c r="M28">
-        <v>61.895551259999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>78.308695999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>115.0367227</v>
@@ -2102,22 +1855,13 @@
       <c r="J29">
         <v>83.234209809999996</v>
       </c>
-      <c r="K29">
-        <v>62.037037040000001</v>
-      </c>
-      <c r="L29">
-        <v>63.888888889999997</v>
-      </c>
-      <c r="M29">
-        <v>70.061728400000007</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C30">
         <v>73.490288059999997</v>
@@ -2143,22 +1887,13 @@
       <c r="J30">
         <v>66.441839110000004</v>
       </c>
-      <c r="K30">
-        <v>68.845177660000004</v>
-      </c>
-      <c r="L30">
-        <v>69.162436549999995</v>
-      </c>
-      <c r="M30">
-        <v>61.230964470000004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>142.49471510000001</v>
@@ -2182,24 +1917,15 @@
         <v>89.21425112</v>
       </c>
       <c r="J31" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31">
-        <v>60.420743639999998</v>
-      </c>
-      <c r="L31">
-        <v>67.5146771</v>
-      </c>
-      <c r="M31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C32">
         <v>115.7493309</v>
@@ -2225,22 +1951,13 @@
       <c r="J32">
         <v>61.533653260000001</v>
       </c>
-      <c r="K32">
-        <v>55.898876399999999</v>
-      </c>
-      <c r="L32">
-        <v>57.02247191</v>
-      </c>
-      <c r="M32">
-        <v>54.775280899999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>90.149689390000006</v>
@@ -2266,22 +1983,13 @@
       <c r="J33">
         <v>61.915893429999997</v>
       </c>
-      <c r="K33">
-        <v>69.435637290000003</v>
-      </c>
-      <c r="L33">
-        <v>63.094483199999999</v>
-      </c>
-      <c r="M33">
-        <v>57.070386810000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C34">
         <v>181.07514889999999</v>
@@ -2307,22 +2015,13 @@
       <c r="J34">
         <v>67.935232529999993</v>
       </c>
-      <c r="K34">
-        <v>66.062176170000001</v>
-      </c>
-      <c r="L34">
-        <v>60.103626939999998</v>
-      </c>
-      <c r="M34">
-        <v>59.844559590000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C35">
         <v>133.7694726</v>
@@ -2348,22 +2047,13 @@
       <c r="J35">
         <v>70.639346560000007</v>
       </c>
-      <c r="K35">
-        <v>78.552971580000005</v>
-      </c>
-      <c r="L35">
-        <v>70.542635660000002</v>
-      </c>
-      <c r="M35">
-        <v>59.948320410000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C36">
         <v>189.9774534</v>
@@ -2389,22 +2079,13 @@
       <c r="J36">
         <v>67.330635819999998</v>
       </c>
-      <c r="K36">
-        <v>74.857414449999993</v>
-      </c>
-      <c r="L36">
-        <v>65.589353610000003</v>
-      </c>
-      <c r="M36">
-        <v>61.311787070000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C37">
         <v>189.95020840000001</v>
@@ -2430,22 +2111,13 @@
       <c r="J37">
         <v>68.191767670000004</v>
       </c>
-      <c r="K37">
-        <v>69.709127379999998</v>
-      </c>
-      <c r="L37">
-        <v>68.706118360000005</v>
-      </c>
-      <c r="M37">
-        <v>57.673019060000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C38">
         <v>168.21289469999999</v>
@@ -2471,63 +2143,45 @@
       <c r="J38">
         <v>64.591768340000002</v>
       </c>
-      <c r="K38">
-        <v>78.345070419999999</v>
-      </c>
-      <c r="L38">
-        <v>62.5</v>
-      </c>
-      <c r="M38">
-        <v>57.511737089999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C39">
-        <v>189.9774534</v>
+        <v>154.89087000000001</v>
       </c>
       <c r="D39">
-        <v>397.66674360000002</v>
+        <v>531.82495670000003</v>
       </c>
       <c r="E39">
-        <v>2.1436195100000002</v>
+        <v>0.37317830000000002</v>
       </c>
       <c r="F39">
-        <v>2.57887946</v>
+        <v>0.45213599999999998</v>
       </c>
       <c r="G39">
-        <v>1.7911655799999999</v>
+        <v>0.32951900000000001</v>
       </c>
       <c r="H39">
-        <v>88.809319830000007</v>
+        <v>73.472618299999993</v>
       </c>
       <c r="I39">
-        <v>78.103709679999994</v>
+        <v>80.026949999999999</v>
       </c>
       <c r="J39">
-        <v>67.330635819999998</v>
-      </c>
-      <c r="K39">
-        <v>74.857414449999993</v>
-      </c>
-      <c r="L39">
-        <v>65.589353610000003</v>
-      </c>
-      <c r="M39">
-        <v>61.311787070000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>79.073494400000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C40">
         <v>110.44905350000001</v>
@@ -2553,22 +2207,13 @@
       <c r="J40">
         <v>84.902414620000002</v>
       </c>
-      <c r="K40">
-        <v>59.506531199999998</v>
-      </c>
-      <c r="L40">
-        <v>59.990324139999998</v>
-      </c>
-      <c r="M40">
-        <v>72.810836960000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C41">
         <v>77.897753140000006</v>
@@ -2594,22 +2239,13 @@
       <c r="J41">
         <v>65.906810129999997</v>
       </c>
-      <c r="K41">
-        <v>67.769131000000002</v>
-      </c>
-      <c r="L41">
-        <v>65.823605709999995</v>
-      </c>
-      <c r="M41">
-        <v>60.311284049999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C42">
         <v>137.42494529999999</v>
@@ -2635,22 +2271,13 @@
       <c r="J42">
         <v>69.093524130000006</v>
       </c>
-      <c r="K42">
-        <v>58.978873239999999</v>
-      </c>
-      <c r="L42">
-        <v>65.434272300000003</v>
-      </c>
-      <c r="M42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C43">
         <v>120.0592422</v>
@@ -2676,22 +2303,13 @@
       <c r="J43">
         <v>59.881782260000001</v>
       </c>
-      <c r="K43">
-        <v>51.385681290000001</v>
-      </c>
-      <c r="L43">
-        <v>55.427251730000002</v>
-      </c>
-      <c r="M43">
-        <v>54.272517319999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C44">
         <v>90.954486340000003</v>
@@ -2717,22 +2335,13 @@
       <c r="J44">
         <v>64.252958370000002</v>
       </c>
-      <c r="K44">
-        <v>68.649249580000003</v>
-      </c>
-      <c r="L44">
-        <v>64.758199000000005</v>
-      </c>
-      <c r="M44">
-        <v>61.1450806</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C45">
         <v>183.13920640000001</v>
@@ -2758,22 +2367,13 @@
       <c r="J45">
         <v>68.752580199999997</v>
       </c>
-      <c r="K45">
-        <v>65.137130799999994</v>
-      </c>
-      <c r="L45">
-        <v>58.016877639999997</v>
-      </c>
-      <c r="M45">
-        <v>61.445147679999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C46">
         <v>117.8232488</v>
@@ -2799,22 +2399,13 @@
       <c r="J46">
         <v>74.546362090000002</v>
       </c>
-      <c r="K46">
-        <v>81.910352189999998</v>
-      </c>
-      <c r="L46">
-        <v>77.107790820000005</v>
-      </c>
-      <c r="M46">
-        <v>63.767342579999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C47">
         <v>176.4667207</v>
@@ -2840,22 +2431,13 @@
       <c r="J47">
         <v>68.133862660000005</v>
       </c>
-      <c r="K47">
-        <v>77.925153960000003</v>
-      </c>
-      <c r="L47">
-        <v>66.082425389999997</v>
-      </c>
-      <c r="M47">
-        <v>61.582188539999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C48">
         <v>200.75385220000001</v>
@@ -2881,22 +2463,13 @@
       <c r="J48">
         <v>67.317559220000007</v>
       </c>
-      <c r="K48">
-        <v>65.796210959999996</v>
-      </c>
-      <c r="L48">
-        <v>75.52483359</v>
-      </c>
-      <c r="M48">
-        <v>55.043522789999997</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C49">
         <v>160.78685150000001</v>
@@ -2922,63 +2495,45 @@
       <c r="J49">
         <v>66.248777200000006</v>
       </c>
-      <c r="K49">
-        <v>81.041544759999994</v>
-      </c>
-      <c r="L49">
-        <v>64.950263309999997</v>
-      </c>
-      <c r="M49">
-        <v>58.513750729999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>176.4667207</v>
+        <v>174.39510999999999</v>
       </c>
       <c r="D50">
-        <v>398.29484109999999</v>
+        <v>412.70420799999999</v>
       </c>
       <c r="E50">
-        <v>2.0826509899999999</v>
+        <v>0.38344</v>
       </c>
       <c r="F50">
-        <v>2.4487913099999998</v>
+        <v>0.453287</v>
       </c>
       <c r="G50">
-        <v>1.6273257299999999</v>
+        <v>0.33323409999999998</v>
       </c>
       <c r="H50">
-        <v>89.695861899999997</v>
+        <v>76.085390000000004</v>
       </c>
       <c r="I50">
-        <v>78.597929140000005</v>
+        <v>81.109639999999999</v>
       </c>
       <c r="J50">
-        <v>68.133862660000005</v>
-      </c>
-      <c r="K50">
-        <v>77.925153960000003</v>
-      </c>
-      <c r="L50">
-        <v>66.082425389999997</v>
-      </c>
-      <c r="M50">
-        <v>61.582188539999997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+        <v>82.372191900000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C51">
         <v>110.94033880000001</v>
@@ -3004,22 +2559,13 @@
       <c r="J51">
         <v>83.658074510000006</v>
       </c>
-      <c r="K51">
-        <v>60.258671370000002</v>
-      </c>
-      <c r="L51">
-        <v>64.373897709999994</v>
-      </c>
-      <c r="M51">
-        <v>70.546737210000003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C52">
         <v>83.152923619999996</v>
@@ -3045,22 +2591,13 @@
       <c r="J52">
         <v>64.567180980000003</v>
       </c>
-      <c r="K52">
-        <v>65.877128049999996</v>
-      </c>
-      <c r="L52">
-        <v>61.806069579999999</v>
-      </c>
-      <c r="M52">
-        <v>62.916358250000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C53">
         <v>140.0765269</v>
@@ -3078,7 +2615,7 @@
         <v>0.35521251999999998</v>
       </c>
       <c r="H53" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I53">
         <v>94.754867790000006</v>
@@ -3086,22 +2623,13 @@
       <c r="J53">
         <v>65.888225570000003</v>
       </c>
-      <c r="K53" t="s">
-        <v>15</v>
-      </c>
-      <c r="L53">
-        <v>76.79738562</v>
-      </c>
-      <c r="M53">
-        <v>56.917211330000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C54">
         <v>113.2845739</v>
@@ -3127,22 +2655,13 @@
       <c r="J54">
         <v>59.674450239999999</v>
       </c>
-      <c r="K54">
-        <v>53.059014619999999</v>
-      </c>
-      <c r="L54">
-        <v>56.307525720000001</v>
-      </c>
-      <c r="M54">
-        <v>53.059014619999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C55">
         <v>87.535553179999994</v>
@@ -3168,22 +2687,13 @@
       <c r="J55">
         <v>59.557122479999997</v>
       </c>
-      <c r="K55">
-        <v>66.416711300000003</v>
-      </c>
-      <c r="L55">
-        <v>59.98928763</v>
-      </c>
-      <c r="M55">
-        <v>56.239957150000002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C56">
         <v>149.77232839999999</v>
@@ -3208,15 +2718,6 @@
       </c>
       <c r="J56">
         <v>69.340936220000003</v>
-      </c>
-      <c r="K56">
-        <v>68.056407109999995</v>
-      </c>
-      <c r="L56">
-        <v>63.458001230000001</v>
-      </c>
-      <c r="M56">
-        <v>60.69895769</v>
       </c>
     </row>
   </sheetData>
